--- a/stock_historical_data/1mo/URJA.NS.xlsx
+++ b/stock_historical_data/1mo/URJA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,60 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22</v>
+      </c>
+      <c r="C88" t="n">
+        <v>22.10000038146973</v>
+      </c>
+      <c r="D88" t="n">
+        <v>21.89999961853027</v>
+      </c>
+      <c r="E88" t="n">
+        <v>22</v>
+      </c>
+      <c r="F88" t="n">
+        <v>22</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>22</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/URJA.NS.xlsx
+++ b/stock_historical_data/1mo/URJA.NS.xlsx
@@ -5131,7 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
-      <c r="Q88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/URJA.NS.xlsx
+++ b/stock_historical_data/1mo/URJA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B2" t="n">
-        <v>1.435863971710205</v>
+        <v>1.196552991867065</v>
       </c>
       <c r="C2" t="n">
-        <v>1.435863971710205</v>
+        <v>1.388002038002014</v>
       </c>
       <c r="D2" t="n">
-        <v>1.100829005241394</v>
+        <v>1.196552991867065</v>
       </c>
       <c r="E2" t="n">
-        <v>1.148691058158875</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.148691058158875</v>
-      </c>
+        <v>1.388002038002014</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>5763988</v>
+        <v>1454234</v>
       </c>
       <c r="H2" t="n">
         <v>2017</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B3" t="n">
+        <v>1.435863971710205</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.435863971710205</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.100829005241394</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.148691058158875</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.196552991867065</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9572420120239258</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9572420120239258</v>
-      </c>
       <c r="F3" t="n">
-        <v>0.9572420120239258</v>
+        <v>1.148691058158875</v>
       </c>
       <c r="G3" t="n">
-        <v>2918050</v>
+        <v>5763988</v>
       </c>
       <c r="H3" t="n">
         <v>2017</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B4" t="n">
+        <v>1.148691058158875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.196552991867065</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.9572420120239258</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.005103945732117</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7657939791679382</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.9093800187110901</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9093800187110901</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="G4" t="n">
-        <v>4819934</v>
+        <v>2918050</v>
       </c>
       <c r="H4" t="n">
         <v>2017</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8615180253982544</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9572420120239258</v>
+        <v>1.005103945732117</v>
       </c>
       <c r="D5" t="n">
         <v>0.7657939791679382</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8615180253982544</v>
+        <v>0.9093800187110901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8615180253982544</v>
+        <v>0.9093800187110901</v>
       </c>
       <c r="G5" t="n">
-        <v>4081636</v>
+        <v>4819934</v>
       </c>
       <c r="H5" t="n">
         <v>2017</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -738,10 +730,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9093800187110901</v>
+        <v>0.8615180253982544</v>
       </c>
       <c r="C6" t="n">
         <v>0.9572420120239258</v>
@@ -756,13 +748,13 @@
         <v>0.8615180253982544</v>
       </c>
       <c r="G6" t="n">
-        <v>10144786</v>
+        <v>4081636</v>
       </c>
       <c r="H6" t="n">
         <v>2017</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8136559724807739</v>
+        <v>0.9093800187110901</v>
       </c>
       <c r="C7" t="n">
-        <v>1.196552991867065</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8136559724807739</v>
+        <v>0.7657939791679382</v>
       </c>
       <c r="E7" t="n">
-        <v>1.100829005241394</v>
+        <v>0.8615180253982544</v>
       </c>
       <c r="F7" t="n">
-        <v>1.100829005241394</v>
+        <v>0.8615180253982544</v>
       </c>
       <c r="G7" t="n">
-        <v>22799030</v>
+        <v>10144786</v>
       </c>
       <c r="H7" t="n">
         <v>2017</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B8" t="n">
+        <v>0.8136559724807739</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.196552991867065</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8136559724807739</v>
+      </c>
+      <c r="E8" t="n">
         <v>1.100829005241394</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.435863971710205</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.9572420120239258</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.435863971710205</v>
-      </c>
       <c r="F8" t="n">
-        <v>1.435863971710205</v>
+        <v>1.100829005241394</v>
       </c>
       <c r="G8" t="n">
-        <v>14204057</v>
+        <v>22799030</v>
       </c>
       <c r="H8" t="n">
         <v>2017</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B9" t="n">
-        <v>1.483726024627686</v>
+        <v>1.100829005241394</v>
       </c>
       <c r="C9" t="n">
-        <v>3.15890097618103</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="D9" t="n">
-        <v>1.483726024627686</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="E9" t="n">
-        <v>3.15890097618103</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="F9" t="n">
-        <v>3.15890097618103</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="G9" t="n">
-        <v>7953266</v>
+        <v>14204057</v>
       </c>
       <c r="H9" t="n">
         <v>2017</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B10" t="n">
-        <v>3.302486896514893</v>
+        <v>1.483726024627686</v>
       </c>
       <c r="C10" t="n">
-        <v>5.264834880828857</v>
+        <v>3.15890097618103</v>
       </c>
       <c r="D10" t="n">
-        <v>3.302486896514893</v>
+        <v>1.483726024627686</v>
       </c>
       <c r="E10" t="n">
-        <v>5.264834880828857</v>
+        <v>3.15890097618103</v>
       </c>
       <c r="F10" t="n">
-        <v>5.264834880828857</v>
+        <v>3.15890097618103</v>
       </c>
       <c r="G10" t="n">
-        <v>25427076</v>
+        <v>7953266</v>
       </c>
       <c r="H10" t="n">
         <v>2017</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,45 +981,45 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B11" t="n">
-        <v>5.504146099090576</v>
+        <v>3.302486896514893</v>
       </c>
       <c r="C11" t="n">
-        <v>9.955325126647949</v>
+        <v>5.264834880828857</v>
       </c>
       <c r="D11" t="n">
-        <v>5.504146099090576</v>
+        <v>3.302486896514893</v>
       </c>
       <c r="E11" t="n">
-        <v>8.950220108032227</v>
+        <v>5.264834880828857</v>
       </c>
       <c r="F11" t="n">
-        <v>8.950220108032227</v>
+        <v>5.264834880828857</v>
       </c>
       <c r="G11" t="n">
-        <v>38666224</v>
+        <v>25427076</v>
       </c>
       <c r="H11" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,45 +1034,45 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B12" t="n">
-        <v>9.380978584289551</v>
+        <v>5.504146099090576</v>
       </c>
       <c r="C12" t="n">
-        <v>9.380978584289551</v>
+        <v>9.955325126647949</v>
       </c>
       <c r="D12" t="n">
         <v>5.504146099090576</v>
       </c>
       <c r="E12" t="n">
-        <v>5.504146099090576</v>
+        <v>8.950220108032227</v>
       </c>
       <c r="F12" t="n">
-        <v>5.504146099090576</v>
+        <v>8.950220108032227</v>
       </c>
       <c r="G12" t="n">
-        <v>32142408</v>
+        <v>38666224</v>
       </c>
       <c r="H12" t="n">
         <v>2018</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B13" t="n">
-        <v>5.264834880828857</v>
+        <v>9.380978584289551</v>
       </c>
       <c r="C13" t="n">
-        <v>5.887042999267578</v>
+        <v>9.380978584289551</v>
       </c>
       <c r="D13" t="n">
-        <v>4.164006233215332</v>
+        <v>5.504146099090576</v>
       </c>
       <c r="E13" t="n">
-        <v>4.738351821899414</v>
+        <v>5.504146099090576</v>
       </c>
       <c r="F13" t="n">
-        <v>4.738351821899414</v>
+        <v>5.504146099090576</v>
       </c>
       <c r="G13" t="n">
-        <v>26687294</v>
+        <v>32142408</v>
       </c>
       <c r="H13" t="n">
         <v>2018</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B14" t="n">
-        <v>4.929800033569336</v>
+        <v>5.264834880828857</v>
       </c>
       <c r="C14" t="n">
-        <v>5.69559383392334</v>
+        <v>5.887042999267578</v>
       </c>
       <c r="D14" t="n">
-        <v>4.355453968048096</v>
+        <v>4.164006233215332</v>
       </c>
       <c r="E14" t="n">
-        <v>4.690488815307617</v>
+        <v>4.738351821899414</v>
       </c>
       <c r="F14" t="n">
-        <v>4.690488815307617</v>
+        <v>4.738351821899414</v>
       </c>
       <c r="G14" t="n">
-        <v>25199266</v>
+        <v>26687294</v>
       </c>
       <c r="H14" t="n">
         <v>2018</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B15" t="n">
+        <v>4.929800033569336</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.69559383392334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.355453968048096</v>
+      </c>
+      <c r="E15" t="n">
         <v>4.690488815307617</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.738351821899414</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.493936061859131</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.972557067871094</v>
-      </c>
       <c r="F15" t="n">
-        <v>3.972557067871094</v>
+        <v>4.690488815307617</v>
       </c>
       <c r="G15" t="n">
-        <v>29013649</v>
+        <v>25199266</v>
       </c>
       <c r="H15" t="n">
         <v>2018</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B16" t="n">
+        <v>4.690488815307617</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.738351821899414</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.493936061859131</v>
+      </c>
+      <c r="E16" t="n">
         <v>3.972557067871094</v>
       </c>
-      <c r="C16" t="n">
-        <v>4.499041080474854</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.919589996337891</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.254625082015991</v>
-      </c>
       <c r="F16" t="n">
-        <v>3.254625082015991</v>
+        <v>3.972557067871094</v>
       </c>
       <c r="G16" t="n">
-        <v>28963723</v>
+        <v>29013649</v>
       </c>
       <c r="H16" t="n">
         <v>2018</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B17" t="n">
-        <v>3.44607400894165</v>
+        <v>3.972557067871094</v>
       </c>
       <c r="C17" t="n">
-        <v>3.781109094619751</v>
+        <v>4.499041080474854</v>
       </c>
       <c r="D17" t="n">
-        <v>2.680279016494751</v>
+        <v>2.919589996337891</v>
       </c>
       <c r="E17" t="n">
-        <v>3.11103892326355</v>
+        <v>3.254625082015991</v>
       </c>
       <c r="F17" t="n">
-        <v>3.11103892326355</v>
+        <v>3.254625082015991</v>
       </c>
       <c r="G17" t="n">
-        <v>26682925</v>
+        <v>28963723</v>
       </c>
       <c r="H17" t="n">
         <v>2018</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B18" t="n">
+        <v>3.44607400894165</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.781109094619751</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.680279016494751</v>
+      </c>
+      <c r="E18" t="n">
         <v>3.11103892326355</v>
       </c>
-      <c r="C18" t="n">
-        <v>3.589659929275513</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.82386589050293</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.015314102172852</v>
-      </c>
       <c r="F18" t="n">
-        <v>3.015314102172852</v>
+        <v>3.11103892326355</v>
       </c>
       <c r="G18" t="n">
-        <v>28999434</v>
+        <v>26682925</v>
       </c>
       <c r="H18" t="n">
         <v>2018</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B19" t="n">
-        <v>2.967452049255371</v>
+        <v>3.11103892326355</v>
       </c>
       <c r="C19" t="n">
-        <v>3.063177108764648</v>
+        <v>3.589659929275513</v>
       </c>
       <c r="D19" t="n">
-        <v>1.723037004470825</v>
+        <v>2.82386589050293</v>
       </c>
       <c r="E19" t="n">
-        <v>1.914484977722168</v>
+        <v>3.015314102172852</v>
       </c>
       <c r="F19" t="n">
-        <v>1.914484977722168</v>
+        <v>3.015314102172852</v>
       </c>
       <c r="G19" t="n">
-        <v>37142444</v>
+        <v>28999434</v>
       </c>
       <c r="H19" t="n">
         <v>2018</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B20" t="n">
-        <v>2.010209083557129</v>
+        <v>2.967452049255371</v>
       </c>
       <c r="C20" t="n">
-        <v>2.680279016494751</v>
+        <v>3.063177108764648</v>
       </c>
       <c r="D20" t="n">
-        <v>1.483726024627686</v>
+        <v>1.723037004470825</v>
       </c>
       <c r="E20" t="n">
-        <v>2.105933904647827</v>
+        <v>1.914484977722168</v>
       </c>
       <c r="F20" t="n">
-        <v>2.105933904647827</v>
+        <v>1.914484977722168</v>
       </c>
       <c r="G20" t="n">
-        <v>47860564</v>
+        <v>37142444</v>
       </c>
       <c r="H20" t="n">
         <v>2018</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B21" t="n">
         <v>2.010209083557129</v>
       </c>
       <c r="C21" t="n">
-        <v>4.307591915130615</v>
+        <v>2.680279016494751</v>
       </c>
       <c r="D21" t="n">
-        <v>2.010209083557129</v>
+        <v>1.483726024627686</v>
       </c>
       <c r="E21" t="n">
-        <v>3.924695014953613</v>
+        <v>2.105933904647827</v>
       </c>
       <c r="F21" t="n">
-        <v>3.924695014953613</v>
+        <v>2.105933904647827</v>
       </c>
       <c r="G21" t="n">
-        <v>13360309</v>
+        <v>47860564</v>
       </c>
       <c r="H21" t="n">
         <v>2018</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B22" t="n">
-        <v>3.733247041702271</v>
+        <v>2.010209083557129</v>
       </c>
       <c r="C22" t="n">
-        <v>3.733247041702271</v>
+        <v>4.307591915130615</v>
       </c>
       <c r="D22" t="n">
-        <v>3.206763029098511</v>
+        <v>2.010209083557129</v>
       </c>
       <c r="E22" t="n">
-        <v>3.302486896514893</v>
+        <v>3.924695014953613</v>
       </c>
       <c r="F22" t="n">
-        <v>3.302486896514893</v>
+        <v>3.924695014953613</v>
       </c>
       <c r="G22" t="n">
-        <v>23109566</v>
+        <v>13360309</v>
       </c>
       <c r="H22" t="n">
         <v>2018</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B23" t="n">
-        <v>3.350348949432373</v>
+        <v>3.733247041702271</v>
       </c>
       <c r="C23" t="n">
-        <v>3.44607400894165</v>
+        <v>3.733247041702271</v>
       </c>
       <c r="D23" t="n">
-        <v>2.728142023086548</v>
+        <v>3.206763029098511</v>
       </c>
       <c r="E23" t="n">
-        <v>3.15890097618103</v>
+        <v>3.302486896514893</v>
       </c>
       <c r="F23" t="n">
-        <v>3.15890097618103</v>
+        <v>3.302486896514893</v>
       </c>
       <c r="G23" t="n">
-        <v>29098430</v>
+        <v>23109566</v>
       </c>
       <c r="H23" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B24" t="n">
+        <v>3.350348949432373</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.44607400894165</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.728142023086548</v>
+      </c>
+      <c r="E24" t="n">
         <v>3.15890097618103</v>
       </c>
-      <c r="C24" t="n">
-        <v>3.39821195602417</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2.58455491065979</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.632416963577271</v>
-      </c>
       <c r="F24" t="n">
-        <v>2.632416963577271</v>
+        <v>3.15890097618103</v>
       </c>
       <c r="G24" t="n">
-        <v>29726006</v>
+        <v>29098430</v>
       </c>
       <c r="H24" t="n">
         <v>2019</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,30 +1723,30 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B25" t="n">
-        <v>2.632416963577271</v>
+        <v>3.15890097618103</v>
       </c>
       <c r="C25" t="n">
-        <v>2.87172794342041</v>
+        <v>3.39821195602417</v>
       </c>
       <c r="D25" t="n">
-        <v>2.536693096160889</v>
+        <v>2.58455491065979</v>
       </c>
       <c r="E25" t="n">
         <v>2.632416963577271</v>
@@ -1763,13 +1755,13 @@
         <v>2.632416963577271</v>
       </c>
       <c r="G25" t="n">
-        <v>31223564</v>
+        <v>29726006</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,45 +1776,45 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B26" t="n">
-        <v>2.680279016494751</v>
+        <v>2.632416963577271</v>
       </c>
       <c r="C26" t="n">
-        <v>2.82386589050293</v>
+        <v>2.87172794342041</v>
       </c>
       <c r="D26" t="n">
-        <v>2.393106937408447</v>
+        <v>2.536693096160889</v>
       </c>
       <c r="E26" t="n">
-        <v>2.440968990325928</v>
+        <v>2.632416963577271</v>
       </c>
       <c r="F26" t="n">
-        <v>2.440968990325928</v>
+        <v>2.632416963577271</v>
       </c>
       <c r="G26" t="n">
-        <v>35165333</v>
+        <v>31223564</v>
       </c>
       <c r="H26" t="n">
         <v>2019</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1846,36 +1838,36 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B27" t="n">
+        <v>2.680279016494751</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.82386589050293</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.393106937408447</v>
+      </c>
+      <c r="E27" t="n">
         <v>2.440968990325928</v>
       </c>
-      <c r="C27" t="n">
-        <v>2.87172794342041</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.105933904647827</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2.536693096160889</v>
-      </c>
       <c r="F27" t="n">
-        <v>2.536693096160889</v>
+        <v>2.440968990325928</v>
       </c>
       <c r="G27" t="n">
-        <v>41498482</v>
+        <v>35165333</v>
       </c>
       <c r="H27" t="n">
         <v>2019</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B28" t="n">
+        <v>2.440968990325928</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.87172794342041</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.105933904647827</v>
+      </c>
+      <c r="E28" t="n">
         <v>2.536693096160889</v>
       </c>
-      <c r="C28" t="n">
-        <v>2.632416963577271</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.914484977722168</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2.058072090148926</v>
-      </c>
       <c r="F28" t="n">
-        <v>2.058072090148926</v>
+        <v>2.536693096160889</v>
       </c>
       <c r="G28" t="n">
-        <v>34415985</v>
+        <v>41498482</v>
       </c>
       <c r="H28" t="n">
         <v>2019</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B29" t="n">
-        <v>2.105933904647827</v>
+        <v>2.536693096160889</v>
       </c>
       <c r="C29" t="n">
-        <v>2.919589996337891</v>
+        <v>2.632416963577271</v>
       </c>
       <c r="D29" t="n">
-        <v>2.010209083557129</v>
+        <v>1.914484977722168</v>
       </c>
       <c r="E29" t="n">
-        <v>2.393106937408447</v>
+        <v>2.058072090148926</v>
       </c>
       <c r="F29" t="n">
-        <v>2.393106937408447</v>
+        <v>2.058072090148926</v>
       </c>
       <c r="G29" t="n">
-        <v>49541438</v>
+        <v>34415985</v>
       </c>
       <c r="H29" t="n">
         <v>2019</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B30" t="n">
-        <v>2.393106937408447</v>
+        <v>2.105933904647827</v>
       </c>
       <c r="C30" t="n">
-        <v>2.488831043243408</v>
+        <v>2.919589996337891</v>
       </c>
       <c r="D30" t="n">
         <v>2.010209083557129</v>
       </c>
       <c r="E30" t="n">
-        <v>2.058072090148926</v>
+        <v>2.393106937408447</v>
       </c>
       <c r="F30" t="n">
-        <v>2.058072090148926</v>
+        <v>2.393106937408447</v>
       </c>
       <c r="G30" t="n">
-        <v>11163364</v>
+        <v>49541438</v>
       </c>
       <c r="H30" t="n">
         <v>2019</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B31" t="n">
+        <v>2.393106937408447</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.488831043243408</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.010209083557129</v>
+      </c>
+      <c r="E31" t="n">
         <v>2.058072090148926</v>
       </c>
-      <c r="C31" t="n">
-        <v>2.153795957565308</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.531587958335876</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1.723037004470825</v>
-      </c>
       <c r="F31" t="n">
-        <v>1.723037004470825</v>
+        <v>2.058072090148926</v>
       </c>
       <c r="G31" t="n">
-        <v>26377131</v>
+        <v>11163364</v>
       </c>
       <c r="H31" t="n">
         <v>2019</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2116,31 +2108,31 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B32" t="n">
-        <v>1.770899057388306</v>
+        <v>2.058072090148926</v>
       </c>
       <c r="C32" t="n">
-        <v>1.866623044013977</v>
+        <v>2.153795957565308</v>
       </c>
       <c r="D32" t="n">
-        <v>1.435863971710205</v>
+        <v>1.531587958335876</v>
       </c>
       <c r="E32" t="n">
-        <v>1.435863971710205</v>
+        <v>1.723037004470825</v>
       </c>
       <c r="F32" t="n">
-        <v>1.435863971710205</v>
+        <v>1.723037004470825</v>
       </c>
       <c r="G32" t="n">
-        <v>19297521</v>
+        <v>26377131</v>
       </c>
       <c r="H32" t="n">
         <v>2019</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2169,31 +2161,31 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B33" t="n">
+        <v>1.770899057388306</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.866623044013977</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.435863971710205</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.723037004470825</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.388002038002014</v>
-      </c>
       <c r="E33" t="n">
-        <v>1.531587958335876</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="F33" t="n">
-        <v>1.531587958335876</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="G33" t="n">
-        <v>20759358</v>
+        <v>19297521</v>
       </c>
       <c r="H33" t="n">
         <v>2019</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2217,36 +2209,36 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B34" t="n">
+        <v>1.435863971710205</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.723037004470825</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.388002038002014</v>
+      </c>
+      <c r="E34" t="n">
         <v>1.531587958335876</v>
       </c>
-      <c r="C34" t="n">
-        <v>2.249520063400269</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.435863971710205</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1.675173997879028</v>
-      </c>
       <c r="F34" t="n">
-        <v>1.675173997879028</v>
+        <v>1.531587958335876</v>
       </c>
       <c r="G34" t="n">
-        <v>35073162</v>
+        <v>20759358</v>
       </c>
       <c r="H34" t="n">
         <v>2019</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,45 +2253,45 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B35" t="n">
-        <v>1.723037004470825</v>
+        <v>1.531587958335876</v>
       </c>
       <c r="C35" t="n">
-        <v>1.818760991096497</v>
+        <v>2.249520063400269</v>
       </c>
       <c r="D35" t="n">
-        <v>1.531587958335876</v>
+        <v>1.435863971710205</v>
       </c>
       <c r="E35" t="n">
-        <v>1.627311944961548</v>
+        <v>1.675173997879028</v>
       </c>
       <c r="F35" t="n">
-        <v>1.627311944961548</v>
+        <v>1.675173997879028</v>
       </c>
       <c r="G35" t="n">
-        <v>19013714</v>
+        <v>35073162</v>
       </c>
       <c r="H35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2328,31 +2320,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B36" t="n">
+        <v>1.723037004470825</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.818760991096497</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.531587958335876</v>
+      </c>
+      <c r="E36" t="n">
         <v>1.627311944961548</v>
       </c>
-      <c r="C36" t="n">
+      <c r="F36" t="n">
         <v>1.627311944961548</v>
       </c>
-      <c r="D36" t="n">
-        <v>1.340139031410217</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.340139031410217</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.340139031410217</v>
-      </c>
       <c r="G36" t="n">
-        <v>14486727</v>
+        <v>19013714</v>
       </c>
       <c r="H36" t="n">
         <v>2020</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2381,31 +2373,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B37" t="n">
+        <v>1.627311944961548</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.627311944961548</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.340139031410217</v>
       </c>
-      <c r="C37" t="n">
-        <v>1.388002038002014</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8615180253982544</v>
-      </c>
       <c r="E37" t="n">
-        <v>0.9572420120239258</v>
+        <v>1.340139031410217</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9572420120239258</v>
+        <v>1.340139031410217</v>
       </c>
       <c r="G37" t="n">
-        <v>43190740</v>
+        <v>14486727</v>
       </c>
       <c r="H37" t="n">
         <v>2020</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -2434,31 +2426,31 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B38" t="n">
+        <v>1.340139031410217</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.388002038002014</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8615180253982544</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.9572420120239258</v>
       </c>
-      <c r="C38" t="n">
-        <v>1.627311944961548</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9093800187110901</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1.483726024627686</v>
-      </c>
       <c r="F38" t="n">
-        <v>1.483726024627686</v>
+        <v>0.9572420120239258</v>
       </c>
       <c r="G38" t="n">
-        <v>25513750</v>
+        <v>43190740</v>
       </c>
       <c r="H38" t="n">
         <v>2020</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,45 +2465,45 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B39" t="n">
+        <v>0.9572420120239258</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.627311944961548</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9093800187110901</v>
+      </c>
+      <c r="E39" t="n">
         <v>1.483726024627686</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.488831043243408</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="F39" t="n">
         <v>1.483726024627686</v>
       </c>
-      <c r="E39" t="n">
-        <v>2.488831043243408</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.488831043243408</v>
-      </c>
       <c r="G39" t="n">
-        <v>17828842</v>
+        <v>25513750</v>
       </c>
       <c r="H39" t="n">
         <v>2020</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2535,36 +2527,36 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B40" t="n">
-        <v>2.58455491065979</v>
+        <v>1.483726024627686</v>
       </c>
       <c r="C40" t="n">
-        <v>4.068282127380371</v>
+        <v>2.488831043243408</v>
       </c>
       <c r="D40" t="n">
-        <v>2.58455491065979</v>
+        <v>1.483726024627686</v>
       </c>
       <c r="E40" t="n">
-        <v>4.068282127380371</v>
+        <v>2.488831043243408</v>
       </c>
       <c r="F40" t="n">
-        <v>4.068282127380371</v>
+        <v>2.488831043243408</v>
       </c>
       <c r="G40" t="n">
-        <v>51774977</v>
+        <v>17828842</v>
       </c>
       <c r="H40" t="n">
         <v>2020</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B41" t="n">
-        <v>4.259729862213135</v>
+        <v>2.58455491065979</v>
       </c>
       <c r="C41" t="n">
-        <v>4.642626762390137</v>
+        <v>4.068282127380371</v>
       </c>
       <c r="D41" t="n">
-        <v>2.249520063400269</v>
+        <v>2.58455491065979</v>
       </c>
       <c r="E41" t="n">
-        <v>2.536693096160889</v>
+        <v>4.068282127380371</v>
       </c>
       <c r="F41" t="n">
-        <v>2.536693096160889</v>
+        <v>4.068282127380371</v>
       </c>
       <c r="G41" t="n">
-        <v>40920465</v>
+        <v>51774977</v>
       </c>
       <c r="H41" t="n">
         <v>2020</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,45 +2624,45 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B42" t="n">
-        <v>2.632416963577271</v>
+        <v>4.259729862213135</v>
       </c>
       <c r="C42" t="n">
-        <v>3.206763029098511</v>
+        <v>4.642626762390137</v>
       </c>
       <c r="D42" t="n">
-        <v>2.632416963577271</v>
+        <v>2.249520063400269</v>
       </c>
       <c r="E42" t="n">
-        <v>2.680279016494751</v>
+        <v>2.536693096160889</v>
       </c>
       <c r="F42" t="n">
-        <v>2.680279016494751</v>
+        <v>2.536693096160889</v>
       </c>
       <c r="G42" t="n">
-        <v>43807863</v>
+        <v>40920465</v>
       </c>
       <c r="H42" t="n">
         <v>2020</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,45 +2677,45 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B43" t="n">
+        <v>2.632416963577271</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.206763029098511</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.632416963577271</v>
+      </c>
+      <c r="E43" t="n">
         <v>2.680279016494751</v>
       </c>
-      <c r="C43" t="n">
-        <v>3.063177108764648</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.488831043243408</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3.063177108764648</v>
-      </c>
       <c r="F43" t="n">
-        <v>3.063177108764648</v>
+        <v>2.680279016494751</v>
       </c>
       <c r="G43" t="n">
-        <v>41821119</v>
+        <v>43807863</v>
       </c>
       <c r="H43" t="n">
         <v>2020</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B44" t="n">
-        <v>3.206763029098511</v>
+        <v>2.680279016494751</v>
       </c>
       <c r="C44" t="n">
-        <v>3.637521982192993</v>
+        <v>3.063177108764648</v>
       </c>
       <c r="D44" t="n">
-        <v>2.82386589050293</v>
+        <v>2.488831043243408</v>
       </c>
       <c r="E44" t="n">
-        <v>2.919589996337891</v>
+        <v>3.063177108764648</v>
       </c>
       <c r="F44" t="n">
-        <v>2.919589996337891</v>
+        <v>3.063177108764648</v>
       </c>
       <c r="G44" t="n">
-        <v>61217799</v>
+        <v>41821119</v>
       </c>
       <c r="H44" t="n">
         <v>2020</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B45" t="n">
-        <v>3.015314102172852</v>
+        <v>3.206763029098511</v>
       </c>
       <c r="C45" t="n">
-        <v>3.350348949432373</v>
+        <v>3.637521982192993</v>
       </c>
       <c r="D45" t="n">
         <v>2.82386589050293</v>
       </c>
       <c r="E45" t="n">
-        <v>3.350348949432373</v>
+        <v>2.919589996337891</v>
       </c>
       <c r="F45" t="n">
-        <v>3.350348949432373</v>
+        <v>2.919589996337891</v>
       </c>
       <c r="G45" t="n">
-        <v>28986131</v>
+        <v>61217799</v>
       </c>
       <c r="H45" t="n">
         <v>2020</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2853,36 +2845,36 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B46" t="n">
-        <v>3.493936061859131</v>
+        <v>3.015314102172852</v>
       </c>
       <c r="C46" t="n">
-        <v>6.413526058197021</v>
+        <v>3.350348949432373</v>
       </c>
       <c r="D46" t="n">
-        <v>3.493936061859131</v>
+        <v>2.82386589050293</v>
       </c>
       <c r="E46" t="n">
-        <v>6.0784912109375</v>
+        <v>3.350348949432373</v>
       </c>
       <c r="F46" t="n">
-        <v>6.0784912109375</v>
+        <v>3.350348949432373</v>
       </c>
       <c r="G46" t="n">
-        <v>96461092</v>
+        <v>28986131</v>
       </c>
       <c r="H46" t="n">
         <v>2020</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2906,36 +2898,36 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B47" t="n">
-        <v>6.365664005279541</v>
+        <v>3.493936061859131</v>
       </c>
       <c r="C47" t="n">
-        <v>9.141669273376465</v>
+        <v>6.413526058197021</v>
       </c>
       <c r="D47" t="n">
+        <v>3.493936061859131</v>
+      </c>
+      <c r="E47" t="n">
         <v>6.0784912109375</v>
       </c>
-      <c r="E47" t="n">
-        <v>7.900000095367432</v>
-      </c>
       <c r="F47" t="n">
-        <v>7.900000095367432</v>
+        <v>6.0784912109375</v>
       </c>
       <c r="G47" t="n">
-        <v>98772548</v>
+        <v>96461092</v>
       </c>
       <c r="H47" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B48" t="n">
-        <v>8.100000381469727</v>
+        <v>6.365664005279541</v>
       </c>
       <c r="C48" t="n">
-        <v>9.350000381469727</v>
+        <v>9.141669273376465</v>
       </c>
       <c r="D48" t="n">
-        <v>6.900000095367432</v>
+        <v>6.0784912109375</v>
       </c>
       <c r="E48" t="n">
-        <v>7.300000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="F48" t="n">
-        <v>7.300000190734863</v>
+        <v>7.900000095367432</v>
       </c>
       <c r="G48" t="n">
-        <v>51617377</v>
+        <v>98772548</v>
       </c>
       <c r="H48" t="n">
         <v>2021</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B49" t="n">
-        <v>7.449999809265137</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="C49" t="n">
-        <v>7.75</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="D49" t="n">
-        <v>6.300000190734863</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E49" t="n">
-        <v>6.550000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F49" t="n">
-        <v>6.550000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="G49" t="n">
-        <v>32502163</v>
+        <v>51617377</v>
       </c>
       <c r="H49" t="n">
         <v>2021</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B50" t="n">
-        <v>6.650000095367432</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C50" t="n">
-        <v>6.849999904632568</v>
+        <v>7.75</v>
       </c>
       <c r="D50" t="n">
-        <v>5.099999904632568</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="F50" t="n">
-        <v>6</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="G50" t="n">
-        <v>23909704</v>
+        <v>32502163</v>
       </c>
       <c r="H50" t="n">
         <v>2021</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B51" t="n">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="C51" t="n">
+        <v>6.849999904632568</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="E51" t="n">
         <v>6</v>
       </c>
-      <c r="C51" t="n">
-        <v>7.150000095367432</v>
-      </c>
-      <c r="D51" t="n">
-        <v>5.900000095367432</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7.050000190734863</v>
-      </c>
       <c r="F51" t="n">
-        <v>7.050000190734863</v>
+        <v>6</v>
       </c>
       <c r="G51" t="n">
-        <v>45875380</v>
+        <v>23909704</v>
       </c>
       <c r="H51" t="n">
         <v>2021</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3176,31 +3168,31 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.150000095367432</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="E52" t="n">
         <v>7.050000190734863</v>
       </c>
-      <c r="C52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>6.699999809265137</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7.75</v>
-      </c>
       <c r="F52" t="n">
-        <v>7.75</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="G52" t="n">
-        <v>89576639</v>
+        <v>45875380</v>
       </c>
       <c r="H52" t="n">
         <v>2021</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,45 +3207,45 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B53" t="n">
-        <v>7.699999809265137</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="C53" t="n">
-        <v>8.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="D53" t="n">
-        <v>5.949999809265137</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E53" t="n">
-        <v>6.349999904632568</v>
+        <v>7.75</v>
       </c>
       <c r="F53" t="n">
-        <v>6.349999904632568</v>
+        <v>7.75</v>
       </c>
       <c r="G53" t="n">
-        <v>77820348</v>
+        <v>89576639</v>
       </c>
       <c r="H53" t="n">
         <v>2021</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,45 +3260,45 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B54" t="n">
-        <v>6.449999809265137</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C54" t="n">
-        <v>7.25</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="D54" t="n">
-        <v>6.050000190734863</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E54" t="n">
-        <v>6.300000190734863</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="F54" t="n">
-        <v>6.300000190734863</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="G54" t="n">
-        <v>68138068</v>
+        <v>77820348</v>
       </c>
       <c r="H54" t="n">
         <v>2021</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3330,36 +3322,36 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B55" t="n">
-        <v>6.349999904632568</v>
+        <v>6.449999809265137</v>
       </c>
       <c r="C55" t="n">
-        <v>6.699999809265137</v>
+        <v>7.25</v>
       </c>
       <c r="D55" t="n">
         <v>6.050000190734863</v>
       </c>
       <c r="E55" t="n">
-        <v>6.199999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="F55" t="n">
-        <v>6.199999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="G55" t="n">
-        <v>37905142</v>
+        <v>68138068</v>
       </c>
       <c r="H55" t="n">
         <v>2021</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3383,36 +3375,36 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B56" t="n">
-        <v>6.25</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C56" t="n">
-        <v>8.800000190734863</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="D56" t="n">
+        <v>6.050000190734863</v>
+      </c>
+      <c r="E56" t="n">
         <v>6.199999809265137</v>
       </c>
-      <c r="E56" t="n">
-        <v>6.699999809265137</v>
-      </c>
       <c r="F56" t="n">
-        <v>6.699999809265137</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="G56" t="n">
-        <v>121764650</v>
+        <v>37905142</v>
       </c>
       <c r="H56" t="n">
         <v>2021</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3436,36 +3428,36 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B57" t="n">
-        <v>6.550000190734863</v>
+        <v>6.25</v>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="D57" t="n">
-        <v>6.550000190734863</v>
+        <v>6.199999809265137</v>
       </c>
       <c r="E57" t="n">
-        <v>7.800000190734863</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F57" t="n">
-        <v>7.800000190734863</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="G57" t="n">
-        <v>71604463</v>
+        <v>121764650</v>
       </c>
       <c r="H57" t="n">
         <v>2021</v>
       </c>
       <c r="I57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3489,36 +3481,36 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B58" t="n">
-        <v>7.75</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="C58" t="n">
-        <v>20.75</v>
+        <v>9</v>
       </c>
       <c r="D58" t="n">
-        <v>7.550000190734863</v>
+        <v>6.550000190734863</v>
       </c>
       <c r="E58" t="n">
-        <v>20.75</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="F58" t="n">
-        <v>20.75</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="G58" t="n">
-        <v>96301769</v>
+        <v>71604463</v>
       </c>
       <c r="H58" t="n">
         <v>2021</v>
       </c>
       <c r="I58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B59" t="n">
-        <v>21.75</v>
+        <v>7.75</v>
       </c>
       <c r="C59" t="n">
-        <v>33.40000152587891</v>
+        <v>20.75</v>
       </c>
       <c r="D59" t="n">
-        <v>20.20000076293945</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="E59" t="n">
-        <v>20.20000076293945</v>
+        <v>20.75</v>
       </c>
       <c r="F59" t="n">
-        <v>20.20000076293945</v>
+        <v>20.75</v>
       </c>
       <c r="G59" t="n">
-        <v>53402824</v>
+        <v>96301769</v>
       </c>
       <c r="H59" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B60" t="n">
-        <v>19.20000076293945</v>
+        <v>21.75</v>
       </c>
       <c r="C60" t="n">
-        <v>23</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="D60" t="n">
-        <v>12.64999961853027</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="E60" t="n">
-        <v>13.94999980926514</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="F60" t="n">
-        <v>13.94999980926514</v>
+        <v>20.20000076293945</v>
       </c>
       <c r="G60" t="n">
-        <v>61238953</v>
+        <v>53402824</v>
       </c>
       <c r="H60" t="n">
         <v>2022</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,10 +3631,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3653,31 +3645,31 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B61" t="n">
+        <v>19.20000076293945</v>
+      </c>
+      <c r="C61" t="n">
+        <v>23</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12.64999961853027</v>
+      </c>
+      <c r="E61" t="n">
         <v>13.94999980926514</v>
       </c>
-      <c r="C61" t="n">
-        <v>20.89999961853027</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="F61" t="n">
         <v>13.94999980926514</v>
       </c>
-      <c r="E61" t="n">
-        <v>17.29999923706055</v>
-      </c>
-      <c r="F61" t="n">
-        <v>17.29999923706055</v>
-      </c>
       <c r="G61" t="n">
-        <v>50997916</v>
+        <v>61238953</v>
       </c>
       <c r="H61" t="n">
         <v>2022</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3706,31 +3698,31 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B62" t="n">
-        <v>17.45000076293945</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="C62" t="n">
-        <v>20.35000038146973</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="D62" t="n">
-        <v>15.05000019073486</v>
+        <v>13.94999980926514</v>
       </c>
       <c r="E62" t="n">
-        <v>17.04999923706055</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="F62" t="n">
-        <v>17.04999923706055</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="G62" t="n">
-        <v>59191906</v>
+        <v>50997916</v>
       </c>
       <c r="H62" t="n">
         <v>2022</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B63" t="n">
+        <v>17.45000076293945</v>
+      </c>
+      <c r="C63" t="n">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15.05000019073486</v>
+      </c>
+      <c r="E63" t="n">
         <v>17.04999923706055</v>
       </c>
-      <c r="C63" t="n">
-        <v>17.79999923706055</v>
-      </c>
-      <c r="D63" t="n">
-        <v>11.69999980926514</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12.75</v>
-      </c>
       <c r="F63" t="n">
-        <v>12.75</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="G63" t="n">
-        <v>66969382</v>
+        <v>59191906</v>
       </c>
       <c r="H63" t="n">
         <v>2022</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3807,36 +3799,36 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B64" t="n">
-        <v>12.69999980926514</v>
+        <v>17.04999923706055</v>
       </c>
       <c r="C64" t="n">
-        <v>15.35000038146973</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="D64" t="n">
-        <v>10.30000019073486</v>
+        <v>11.69999980926514</v>
       </c>
       <c r="E64" t="n">
-        <v>11.80000019073486</v>
+        <v>12.75</v>
       </c>
       <c r="F64" t="n">
-        <v>11.80000019073486</v>
+        <v>12.75</v>
       </c>
       <c r="G64" t="n">
-        <v>53425853</v>
+        <v>66969382</v>
       </c>
       <c r="H64" t="n">
         <v>2022</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,45 +3843,45 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
         <v>2</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B65" t="n">
+        <v>12.69999980926514</v>
+      </c>
+      <c r="C65" t="n">
+        <v>15.35000038146973</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10.30000019073486</v>
+      </c>
+      <c r="E65" t="n">
         <v>11.80000019073486</v>
       </c>
-      <c r="C65" t="n">
-        <v>14.85000038146973</v>
-      </c>
-      <c r="D65" t="n">
-        <v>11.10000038146973</v>
-      </c>
-      <c r="E65" t="n">
-        <v>12.89999961853027</v>
-      </c>
       <c r="F65" t="n">
-        <v>12.89999961853027</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="G65" t="n">
-        <v>52330813</v>
+        <v>53425853</v>
       </c>
       <c r="H65" t="n">
         <v>2022</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B66" t="n">
-        <v>13.10000038146973</v>
+        <v>11.80000019073486</v>
       </c>
       <c r="C66" t="n">
-        <v>13.60000038146973</v>
+        <v>14.85000038146973</v>
       </c>
       <c r="D66" t="n">
-        <v>11.69999980926514</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="E66" t="n">
-        <v>12.19999980926514</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="F66" t="n">
-        <v>12.19999980926514</v>
+        <v>12.89999961853027</v>
       </c>
       <c r="G66" t="n">
-        <v>30646608</v>
+        <v>52330813</v>
       </c>
       <c r="H66" t="n">
         <v>2022</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B67" t="n">
+        <v>13.10000038146973</v>
+      </c>
+      <c r="C67" t="n">
+        <v>13.60000038146973</v>
+      </c>
+      <c r="D67" t="n">
+        <v>11.69999980926514</v>
+      </c>
+      <c r="E67" t="n">
         <v>12.19999980926514</v>
       </c>
-      <c r="C67" t="n">
-        <v>13.39999961853027</v>
-      </c>
-      <c r="D67" t="n">
-        <v>11.05000019073486</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11.30000019073486</v>
-      </c>
       <c r="F67" t="n">
-        <v>11.30000019073486</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="G67" t="n">
-        <v>18001877</v>
+        <v>30646608</v>
       </c>
       <c r="H67" t="n">
         <v>2022</v>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B68" t="n">
-        <v>11.44999980926514</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="C68" t="n">
-        <v>12.5</v>
+        <v>13.39999961853027</v>
       </c>
       <c r="D68" t="n">
-        <v>10.85000038146973</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="E68" t="n">
-        <v>10.94999980926514</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="F68" t="n">
-        <v>10.94999980926514</v>
+        <v>11.30000019073486</v>
       </c>
       <c r="G68" t="n">
-        <v>10251417</v>
+        <v>18001877</v>
       </c>
       <c r="H68" t="n">
         <v>2022</v>
       </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4072,36 +4064,36 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B69" t="n">
-        <v>10.69999980926514</v>
+        <v>11.44999980926514</v>
       </c>
       <c r="C69" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="D69" t="n">
-        <v>10.25</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="E69" t="n">
-        <v>11.05000019073486</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="F69" t="n">
-        <v>11.05000019073486</v>
+        <v>10.94999980926514</v>
       </c>
       <c r="G69" t="n">
-        <v>16786281</v>
+        <v>10251417</v>
       </c>
       <c r="H69" t="n">
         <v>2022</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4125,36 +4117,36 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B70" t="n">
+        <v>10.69999980926514</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="D70" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="E70" t="n">
         <v>11.05000019073486</v>
       </c>
-      <c r="C70" t="n">
-        <v>12</v>
-      </c>
-      <c r="D70" t="n">
-        <v>8.649999618530273</v>
-      </c>
-      <c r="E70" t="n">
-        <v>9.949999809265137</v>
-      </c>
       <c r="F70" t="n">
-        <v>9.949999809265137</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="G70" t="n">
-        <v>78987355</v>
+        <v>16786281</v>
       </c>
       <c r="H70" t="n">
         <v>2022</v>
       </c>
       <c r="I70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4183,31 +4175,31 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B71" t="n">
-        <v>10.05000019073486</v>
+        <v>11.05000019073486</v>
       </c>
       <c r="C71" t="n">
-        <v>10.35000038146973</v>
+        <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>8.899999618530273</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="E71" t="n">
-        <v>9.449999809265137</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="F71" t="n">
-        <v>9.449999809265137</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="G71" t="n">
-        <v>27255630</v>
+        <v>78987355</v>
       </c>
       <c r="H71" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B72" t="n">
-        <v>9.600000381469727</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="C72" t="n">
-        <v>9.899999618530273</v>
+        <v>10.35000038146973</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>8.899999618530273</v>
       </c>
       <c r="E72" t="n">
-        <v>8.149999618530273</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="F72" t="n">
-        <v>8.149999618530273</v>
+        <v>9.449999809265137</v>
       </c>
       <c r="G72" t="n">
-        <v>26868140</v>
+        <v>27255630</v>
       </c>
       <c r="H72" t="n">
         <v>2023</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4289,31 +4281,31 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B73" t="n">
-        <v>8.199999809265137</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="C73" t="n">
-        <v>8.75</v>
+        <v>9.899999618530273</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>6.849999904632568</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="F73" t="n">
-        <v>6.849999904632568</v>
+        <v>8.149999618530273</v>
       </c>
       <c r="G73" t="n">
-        <v>53681390</v>
+        <v>26868140</v>
       </c>
       <c r="H73" t="n">
         <v>2023</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,10 +4320,10 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -4342,31 +4334,31 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B74" t="n">
-        <v>7</v>
+        <v>8.199999809265137</v>
       </c>
       <c r="C74" t="n">
-        <v>9.399999618530273</v>
+        <v>8.75</v>
       </c>
       <c r="D74" t="n">
-        <v>6.599999904632568</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>7.849999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F74" t="n">
-        <v>7.849999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="G74" t="n">
-        <v>71938464</v>
+        <v>53681390</v>
       </c>
       <c r="H74" t="n">
         <v>2023</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B75" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9.399999618530273</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="E75" t="n">
         <v>7.849999904632568</v>
       </c>
-      <c r="C75" t="n">
-        <v>8.050000190734863</v>
-      </c>
-      <c r="D75" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>7.650000095367432</v>
-      </c>
       <c r="F75" t="n">
-        <v>7.650000095367432</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="G75" t="n">
-        <v>31750836</v>
+        <v>71938464</v>
       </c>
       <c r="H75" t="n">
         <v>2023</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B76" t="n">
-        <v>7.699999809265137</v>
+        <v>7.849999904632568</v>
       </c>
       <c r="C76" t="n">
-        <v>12.69999980926514</v>
+        <v>8.050000190734863</v>
       </c>
       <c r="D76" t="n">
-        <v>7.699999809265137</v>
+        <v>7.5</v>
       </c>
       <c r="E76" t="n">
-        <v>9.600000381469727</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="F76" t="n">
-        <v>9.600000381469727</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="G76" t="n">
-        <v>215709073</v>
+        <v>31750836</v>
       </c>
       <c r="H76" t="n">
         <v>2023</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B77" t="n">
-        <v>9.649999618530273</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="C77" t="n">
-        <v>10.60000038146973</v>
+        <v>12.69999980926514</v>
       </c>
       <c r="D77" t="n">
-        <v>9.5</v>
+        <v>7.699999809265137</v>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="G77" t="n">
-        <v>72770955</v>
+        <v>215709073</v>
       </c>
       <c r="H77" t="n">
         <v>2023</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,45 +4532,45 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B78" t="n">
-        <v>10.10000038146973</v>
+        <v>9.649999618530273</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="D78" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="E78" t="n">
-        <v>9.800000190734863</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>9.800000190734863</v>
+        <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>106461392</v>
+        <v>72770955</v>
       </c>
       <c r="H78" t="n">
         <v>2023</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4602,21 +4594,21 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B79" t="n">
-        <v>9.800000190734863</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="C79" t="n">
-        <v>11.10000038146973</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>9.699999809265137</v>
+        <v>9.75</v>
       </c>
       <c r="E79" t="n">
         <v>9.800000190734863</v>
@@ -4625,13 +4617,13 @@
         <v>9.800000190734863</v>
       </c>
       <c r="G79" t="n">
-        <v>125312510</v>
+        <v>106461392</v>
       </c>
       <c r="H79" t="n">
         <v>2023</v>
       </c>
       <c r="I79" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B80" t="n">
         <v>9.800000190734863</v>
       </c>
       <c r="C80" t="n">
-        <v>10.60000038146973</v>
+        <v>11.10000038146973</v>
       </c>
       <c r="D80" t="n">
-        <v>8.800000190734863</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="E80" t="n">
-        <v>9.350000381469727</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="F80" t="n">
-        <v>9.350000381469727</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="G80" t="n">
-        <v>65429362</v>
+        <v>125312510</v>
       </c>
       <c r="H80" t="n">
         <v>2023</v>
       </c>
       <c r="I80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,45 +4691,45 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B81" t="n">
-        <v>9.399999618530273</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="C81" t="n">
-        <v>13.25</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="D81" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="E81" t="n">
         <v>9.350000381469727</v>
       </c>
-      <c r="E81" t="n">
-        <v>12.19999980926514</v>
-      </c>
       <c r="F81" t="n">
-        <v>12.19999980926514</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="G81" t="n">
-        <v>482413696</v>
+        <v>65429362</v>
       </c>
       <c r="H81" t="n">
         <v>2023</v>
       </c>
       <c r="I81" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,45 +4744,45 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B82" t="n">
-        <v>12.30000019073486</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="C82" t="n">
-        <v>16.75</v>
+        <v>13.25</v>
       </c>
       <c r="D82" t="n">
-        <v>11.60000038146973</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="E82" t="n">
-        <v>14.69999980926514</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="F82" t="n">
-        <v>14.69999980926514</v>
+        <v>12.19999980926514</v>
       </c>
       <c r="G82" t="n">
-        <v>489913000</v>
+        <v>482413696</v>
       </c>
       <c r="H82" t="n">
         <v>2023</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,31 +4811,31 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B83" t="n">
-        <v>14.89999961853027</v>
+        <v>12.30000019073486</v>
       </c>
       <c r="C83" t="n">
-        <v>34.45000076293945</v>
+        <v>16.75</v>
       </c>
       <c r="D83" t="n">
-        <v>14.60000038146973</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="E83" t="n">
-        <v>34.45000076293945</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="F83" t="n">
-        <v>34.45000076293945</v>
+        <v>14.69999980926514</v>
       </c>
       <c r="G83" t="n">
-        <v>857020849</v>
+        <v>489913000</v>
       </c>
       <c r="H83" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -4858,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -4872,31 +4864,31 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="C84" t="n">
-        <v>41.65000152587891</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="D84" t="n">
-        <v>21.29999923706055</v>
+        <v>14.60000038146973</v>
       </c>
       <c r="E84" t="n">
-        <v>21.89999961853027</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="F84" t="n">
-        <v>21.89999961853027</v>
+        <v>34.45000076293945</v>
       </c>
       <c r="G84" t="n">
-        <v>218069880</v>
+        <v>857020849</v>
       </c>
       <c r="H84" t="n">
         <v>2024</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -4911,45 +4903,45 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B85" t="n">
-        <v>22.04999923706055</v>
+        <v>36</v>
       </c>
       <c r="C85" t="n">
-        <v>24.89999961853027</v>
+        <v>41.65000152587891</v>
       </c>
       <c r="D85" t="n">
-        <v>18.5</v>
+        <v>21.29999923706055</v>
       </c>
       <c r="E85" t="n">
-        <v>18.89999961853027</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="F85" t="n">
-        <v>18.89999961853027</v>
+        <v>21.89999961853027</v>
       </c>
       <c r="G85" t="n">
-        <v>50018505</v>
+        <v>218069880</v>
       </c>
       <c r="H85" t="n">
         <v>2024</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -4964,45 +4956,45 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B86" t="n">
-        <v>19.45000076293945</v>
+        <v>22.04999923706055</v>
       </c>
       <c r="C86" t="n">
-        <v>25</v>
+        <v>24.89999961853027</v>
       </c>
       <c r="D86" t="n">
-        <v>19.29999923706055</v>
+        <v>18.5</v>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="F86" t="n">
-        <v>22</v>
+        <v>18.89999961853027</v>
       </c>
       <c r="G86" t="n">
-        <v>44733723</v>
+        <v>50018505</v>
       </c>
       <c r="H86" t="n">
         <v>2024</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -5017,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5031,31 +5023,31 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B87" t="n">
+        <v>19.45000076293945</v>
+      </c>
+      <c r="C87" t="n">
+        <v>25</v>
+      </c>
+      <c r="D87" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="E87" t="n">
         <v>22</v>
       </c>
-      <c r="C87" t="n">
-        <v>22.64999961853027</v>
-      </c>
-      <c r="D87" t="n">
-        <v>20.04999923706055</v>
-      </c>
-      <c r="E87" t="n">
-        <v>21.10000038146973</v>
-      </c>
       <c r="F87" t="n">
-        <v>21.10000038146973</v>
+        <v>22</v>
       </c>
       <c r="G87" t="n">
-        <v>56199044</v>
+        <v>44733723</v>
       </c>
       <c r="H87" t="n">
         <v>2024</v>
       </c>
       <c r="I87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -5070,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5084,56 +5076,514 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B88" t="n">
         <v>22</v>
       </c>
       <c r="C88" t="n">
-        <v>22.60000038146973</v>
+        <v>22.64999961853027</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>20.04999923706055</v>
       </c>
       <c r="E88" t="n">
-        <v>21.14999961853027</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="F88" t="n">
-        <v>21.14999961853027</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="G88" t="n">
-        <v>23112616</v>
+        <v>56199044</v>
       </c>
       <c r="H88" t="n">
         <v>2024</v>
       </c>
       <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>18</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B89" t="n">
+        <v>22</v>
+      </c>
+      <c r="C89" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20</v>
+      </c>
+      <c r="E89" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="F89" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="G89" t="n">
+        <v>23112616</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
         <v>6</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
         <v>22</v>
       </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B90" t="n">
+        <v>21.34000015258789</v>
+      </c>
+      <c r="C90" t="n">
+        <v>23.56999969482422</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20.01000022888184</v>
+      </c>
+      <c r="E90" t="n">
+        <v>21.59000015258789</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>91561318</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>27</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B91" t="n">
+        <v>21.72999954223633</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19.76000022888184</v>
+      </c>
+      <c r="E91" t="n">
+        <v>21.76000022888184</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>149791435</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I91" t="n">
+        <v>8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>31</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B92" t="n">
+        <v>21.88999938964844</v>
+      </c>
+      <c r="C92" t="n">
+        <v>22</v>
+      </c>
+      <c r="D92" t="n">
+        <v>20</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20.44000053405762</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>57545144</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>35</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B93" t="n">
+        <v>20.54000091552734</v>
+      </c>
+      <c r="C93" t="n">
+        <v>22.19000053405762</v>
+      </c>
+      <c r="D93" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="E93" t="n">
+        <v>19.11000061035156</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>67510548</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>40</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.79999923706055</v>
+      </c>
+      <c r="C94" t="n">
+        <v>20.21999931335449</v>
+      </c>
+      <c r="D94" t="n">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="E94" t="n">
+        <v>19.04999923706055</v>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>12558114</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I94" t="n">
+        <v>11</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>44</v>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B95" t="n">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="C95" t="n">
+        <v>19.48999977111816</v>
+      </c>
+      <c r="D95" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>16.93000030517578</v>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>11693474</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>48</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17.03000068664551</v>
+      </c>
+      <c r="C96" t="n">
+        <v>17.98999977111816</v>
+      </c>
+      <c r="D96" t="n">
+        <v>14.52999973297119</v>
+      </c>
+      <c r="E96" t="n">
+        <v>15</v>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>10648046</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E97" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>5728396</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C98" t="n">
+        <v>14.55000019073486</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10.86999988555908</v>
+      </c>
+      <c r="E98" t="n">
+        <v>11.51000022888184</v>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>7274658</v>
+      </c>
+      <c r="H98" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>9</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
